--- a/6 新版工具/6.0/大号/detail.xlsx
+++ b/6 新版工具/6.0/大号/detail.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{E271A86D-C8E1-4BF2-80CA-221E47F45BDC}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{BCC9A155-182C-44E0-ADDF-0E741CC4D904}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2393,7 +2393,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2423,6 +2423,21 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFFC000"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFFC000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -2444,7 +2459,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2453,6 +2468,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2739,7 +2760,7 @@
   <dimension ref="A1:R121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A56" activeCellId="10" sqref="A1:A1048576 A16 A21 A24:A25 A29:A30 A32 A34:A35 A37 A40:A43 A51:A52 A55:A59 A62:A73 A75:A99 A101 A104:A1048576"/>
+      <selection activeCell="A61" sqref="A61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2805,8 +2826,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
         <v>10</v>
       </c>
       <c r="B2">
@@ -2861,8 +2882,8 @@
         <v>321</v>
       </c>
     </row>
-    <row r="3" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
         <v>16</v>
       </c>
       <c r="B3">
@@ -2917,8 +2938,8 @@
         <v>322</v>
       </c>
     </row>
-    <row r="4" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
         <v>18</v>
       </c>
       <c r="B4">
@@ -2973,8 +2994,8 @@
         <v>322</v>
       </c>
     </row>
-    <row r="5" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
         <v>20</v>
       </c>
       <c r="B5">
@@ -3029,8 +3050,8 @@
         <v>322</v>
       </c>
     </row>
-    <row r="6" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
         <v>22</v>
       </c>
       <c r="B6">
@@ -3085,8 +3106,8 @@
         <v>323</v>
       </c>
     </row>
-    <row r="7" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
         <v>26</v>
       </c>
       <c r="B7">
@@ -3141,8 +3162,8 @@
         <v>324</v>
       </c>
     </row>
-    <row r="8" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
         <v>27</v>
       </c>
       <c r="B8">
@@ -3197,8 +3218,8 @@
         <v>324</v>
       </c>
     </row>
-    <row r="9" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
         <v>28</v>
       </c>
       <c r="B9">
@@ -3253,8 +3274,8 @@
         <v>325</v>
       </c>
     </row>
-    <row r="10" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
         <v>30</v>
       </c>
       <c r="B10">
@@ -3309,8 +3330,8 @@
         <v>326</v>
       </c>
     </row>
-    <row r="11" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
         <v>34</v>
       </c>
       <c r="B11">
@@ -3365,8 +3386,8 @@
         <v>325</v>
       </c>
     </row>
-    <row r="12" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
         <v>36</v>
       </c>
       <c r="B12">
@@ -3421,8 +3442,8 @@
         <v>322</v>
       </c>
     </row>
-    <row r="13" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
         <v>38</v>
       </c>
       <c r="B13">
@@ -3477,8 +3498,8 @@
         <v>323</v>
       </c>
     </row>
-    <row r="14" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
         <v>41</v>
       </c>
       <c r="B14">
@@ -3533,8 +3554,8 @@
         <v>327</v>
       </c>
     </row>
-    <row r="15" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
         <v>42</v>
       </c>
       <c r="B15">
@@ -3589,7 +3610,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>43</v>
       </c>
@@ -3645,8 +3666,8 @@
         <v>766</v>
       </c>
     </row>
-    <row r="17" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
         <v>45</v>
       </c>
       <c r="B17">
@@ -3701,8 +3722,8 @@
         <v>329</v>
       </c>
     </row>
-    <row r="18" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
         <v>47</v>
       </c>
       <c r="B18">
@@ -3757,8 +3778,8 @@
         <v>328</v>
       </c>
     </row>
-    <row r="19" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
         <v>49</v>
       </c>
       <c r="B19">
@@ -3813,8 +3834,8 @@
         <v>322</v>
       </c>
     </row>
-    <row r="20" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
         <v>50</v>
       </c>
       <c r="B20">
@@ -3869,7 +3890,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>52</v>
       </c>
@@ -3925,8 +3946,8 @@
         <v>764</v>
       </c>
     </row>
-    <row r="22" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
         <v>54</v>
       </c>
       <c r="B22">
@@ -3981,8 +4002,8 @@
         <v>330</v>
       </c>
     </row>
-    <row r="23" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
         <v>57</v>
       </c>
       <c r="B23">
@@ -4037,7 +4058,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>58</v>
       </c>
@@ -4093,7 +4114,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>59</v>
       </c>
@@ -4149,8 +4170,8 @@
         <v>330</v>
       </c>
     </row>
-    <row r="26" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
         <v>60</v>
       </c>
       <c r="B26">
@@ -4205,8 +4226,8 @@
         <v>331</v>
       </c>
     </row>
-    <row r="27" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
         <v>64</v>
       </c>
       <c r="B27">
@@ -4261,8 +4282,8 @@
         <v>326</v>
       </c>
     </row>
-    <row r="28" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
         <v>66</v>
       </c>
       <c r="B28">
@@ -4317,7 +4338,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>68</v>
       </c>
@@ -4373,7 +4394,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>70</v>
       </c>
@@ -4429,8 +4450,8 @@
         <v>325</v>
       </c>
     </row>
-    <row r="31" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
         <v>72</v>
       </c>
       <c r="B31">
@@ -4485,7 +4506,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>73</v>
       </c>
@@ -4541,8 +4562,8 @@
         <v>326</v>
       </c>
     </row>
-    <row r="33" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
         <v>74</v>
       </c>
       <c r="B33">
@@ -4597,7 +4618,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>76</v>
       </c>
@@ -4653,7 +4674,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>78</v>
       </c>
@@ -4709,8 +4730,8 @@
         <v>326</v>
       </c>
     </row>
-    <row r="36" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A36" s="4" t="s">
         <v>80</v>
       </c>
       <c r="B36">
@@ -4765,7 +4786,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>82</v>
       </c>
@@ -4821,8 +4842,8 @@
         <v>325</v>
       </c>
     </row>
-    <row r="38" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A38" s="4" t="s">
         <v>83</v>
       </c>
       <c r="B38">
@@ -4877,8 +4898,8 @@
         <v>322</v>
       </c>
     </row>
-    <row r="39" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A39" s="4" t="s">
         <v>85</v>
       </c>
       <c r="B39">
@@ -4933,7 +4954,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>87</v>
       </c>
@@ -4989,7 +5010,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>89</v>
       </c>
@@ -5045,7 +5066,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>91</v>
       </c>
@@ -5101,7 +5122,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>93</v>
       </c>
@@ -5157,8 +5178,8 @@
         <v>334</v>
       </c>
     </row>
-    <row r="44" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A44" s="4" t="s">
         <v>97</v>
       </c>
       <c r="B44">
@@ -5213,8 +5234,8 @@
         <v>335</v>
       </c>
     </row>
-    <row r="45" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A45" s="4" t="s">
         <v>98</v>
       </c>
       <c r="B45">
@@ -5269,8 +5290,8 @@
         <v>336</v>
       </c>
     </row>
-    <row r="46" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A46" s="4" t="s">
         <v>99</v>
       </c>
       <c r="B46">
@@ -5325,8 +5346,8 @@
         <v>336</v>
       </c>
     </row>
-    <row r="47" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A47" s="4" t="s">
         <v>100</v>
       </c>
       <c r="B47">
@@ -5381,8 +5402,8 @@
         <v>335</v>
       </c>
     </row>
-    <row r="48" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="1" t="s">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A48" s="4" t="s">
         <v>101</v>
       </c>
       <c r="B48">
@@ -5437,8 +5458,8 @@
         <v>335</v>
       </c>
     </row>
-    <row r="49" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="1" t="s">
+    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A49" s="5" t="s">
         <v>102</v>
       </c>
       <c r="B49">
@@ -5493,8 +5514,8 @@
         <v>335</v>
       </c>
     </row>
-    <row r="50" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
+    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A50" s="5" t="s">
         <v>103</v>
       </c>
       <c r="B50">
@@ -5549,7 +5570,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>104</v>
       </c>
@@ -5605,7 +5626,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>105</v>
       </c>
@@ -5661,8 +5682,8 @@
         <v>336</v>
       </c>
     </row>
-    <row r="53" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="1" t="s">
+    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A53" s="4" t="s">
         <v>106</v>
       </c>
       <c r="B53">
@@ -5717,8 +5738,8 @@
         <v>336</v>
       </c>
     </row>
-    <row r="54" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="1" t="s">
+    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A54" s="4" t="s">
         <v>107</v>
       </c>
       <c r="B54">
@@ -5773,7 +5794,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>108</v>
       </c>
@@ -5829,7 +5850,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>109</v>
       </c>
@@ -5885,7 +5906,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>110</v>
       </c>
@@ -5941,7 +5962,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>111</v>
       </c>
@@ -5997,7 +6018,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>112</v>
       </c>
@@ -6053,8 +6074,8 @@
         <v>338</v>
       </c>
     </row>
-    <row r="60" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="1" t="s">
+    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A60" s="4" t="s">
         <v>113</v>
       </c>
       <c r="B60">
@@ -6109,8 +6130,8 @@
         <v>338</v>
       </c>
     </row>
-    <row r="61" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="1" t="s">
+    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A61" s="4" t="s">
         <v>114</v>
       </c>
       <c r="B61">
@@ -6165,7 +6186,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>115</v>
       </c>
@@ -6221,7 +6242,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>116</v>
       </c>
@@ -6277,7 +6298,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>117</v>
       </c>
@@ -6333,7 +6354,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>118</v>
       </c>
@@ -6389,7 +6410,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="66" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>119</v>
       </c>
@@ -6445,7 +6466,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>120</v>
       </c>
@@ -6501,7 +6522,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="68" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>121</v>
       </c>
@@ -6557,7 +6578,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="69" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>122</v>
       </c>
@@ -6613,7 +6634,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="70" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>123</v>
       </c>
@@ -6669,7 +6690,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="71" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>124</v>
       </c>
@@ -6725,7 +6746,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="72" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>125</v>
       </c>
@@ -6781,7 +6802,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="73" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>126</v>
       </c>
@@ -6837,8 +6858,8 @@
         <v>339</v>
       </c>
     </row>
-    <row r="74" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="1" t="s">
+    <row r="74" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A74" s="4" t="s">
         <v>127</v>
       </c>
       <c r="B74">
@@ -6893,7 +6914,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="75" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>128</v>
       </c>
@@ -6949,7 +6970,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="76" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>129</v>
       </c>
@@ -7005,7 +7026,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="77" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>131</v>
       </c>
@@ -7061,7 +7082,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="78" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>132</v>
       </c>
@@ -7117,7 +7138,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="79" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>133</v>
       </c>
@@ -7173,7 +7194,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="80" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>134</v>
       </c>
@@ -7229,7 +7250,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="81" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>137</v>
       </c>
@@ -7285,7 +7306,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="82" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>138</v>
       </c>
@@ -7341,7 +7362,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="83" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>139</v>
       </c>
@@ -7397,7 +7418,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="84" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>773</v>
       </c>
@@ -7453,7 +7474,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="85" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>142</v>
       </c>
@@ -7509,7 +7530,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="86" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>143</v>
       </c>
@@ -7565,7 +7586,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="87" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>144</v>
       </c>
@@ -7621,7 +7642,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="88" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>145</v>
       </c>
@@ -7677,7 +7698,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="89" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>148</v>
       </c>
@@ -7733,7 +7754,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="90" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>149</v>
       </c>
@@ -7789,7 +7810,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="91" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>150</v>
       </c>
@@ -7845,7 +7866,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="92" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>151</v>
       </c>
@@ -7901,7 +7922,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="93" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>152</v>
       </c>
@@ -7957,7 +7978,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="94" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>153</v>
       </c>
@@ -8013,7 +8034,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="95" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>154</v>
       </c>
@@ -8069,7 +8090,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="96" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>155</v>
       </c>
@@ -8125,7 +8146,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="97" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>157</v>
       </c>
@@ -8181,7 +8202,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="98" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>161</v>
       </c>
@@ -8237,7 +8258,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="99" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>163</v>
       </c>
@@ -8293,8 +8314,8 @@
         <v>344</v>
       </c>
     </row>
-    <row r="100" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="1" t="s">
+    <row r="100" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A100" s="4" t="s">
         <v>164</v>
       </c>
       <c r="B100">
@@ -8349,7 +8370,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="101" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>166</v>
       </c>
@@ -8405,8 +8426,8 @@
         <v>769</v>
       </c>
     </row>
-    <row r="102" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="1" t="s">
+    <row r="102" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A102" s="4" t="s">
         <v>167</v>
       </c>
       <c r="B102">
@@ -8461,8 +8482,8 @@
         <v>344</v>
       </c>
     </row>
-    <row r="103" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="1" t="s">
+    <row r="103" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A103" s="4" t="s">
         <v>169</v>
       </c>
       <c r="B103">
@@ -8517,7 +8538,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="104" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>170</v>
       </c>
@@ -8573,7 +8594,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="105" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
         <v>195</v>
       </c>
@@ -8619,7 +8640,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="106" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
         <v>196</v>
       </c>
@@ -8665,7 +8686,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="107" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
         <v>197</v>
       </c>
@@ -8711,7 +8732,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="108" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
         <v>198</v>
       </c>
@@ -8757,7 +8778,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="109" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
         <v>199</v>
       </c>
@@ -8803,7 +8824,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="110" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>176</v>
       </c>
@@ -8859,7 +8880,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="111" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>178</v>
       </c>
@@ -8915,7 +8936,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="112" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>180</v>
       </c>
@@ -8971,7 +8992,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="113" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>182</v>
       </c>
@@ -9027,7 +9048,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="114" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>184</v>
       </c>
@@ -9083,7 +9104,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="115" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>185</v>
       </c>
@@ -9139,7 +9160,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="116" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>186</v>
       </c>
@@ -9195,7 +9216,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="117" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>188</v>
       </c>
@@ -9251,7 +9272,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="118" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>189</v>
       </c>
@@ -9307,7 +9328,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="119" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>191</v>
       </c>
@@ -9363,7 +9384,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="120" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>193</v>
       </c>
@@ -9419,7 +9440,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="121" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>194</v>
       </c>
@@ -9477,7 +9498,7 @@
   <autoFilter ref="A1:R121" xr:uid="{6B087A59-5B4E-4AAF-8179-8EE895BFB754}">
     <filterColumn colId="3">
       <filters>
-        <filter val="1"/>
+        <filter val="0"/>
       </filters>
     </filterColumn>
   </autoFilter>
